--- a/D_R_Z-Soyl.xlsx
+++ b/D_R_Z-Soyl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Личный софт и наработки\Телеграм бот\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F62221-C3D3-46AB-8241-F1EE5603E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC9A296-3BC2-454D-B335-8D326D0E05C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Маркин Михаил Владимирович</t>
   </si>
@@ -100,13 +100,79 @@
   </si>
   <si>
     <t>Коля</t>
+  </si>
+  <si>
+    <t>, от имени всего коллектива хочу пожелать тебе неиссякаемого вдохновения и полного воплощения твоих талантов! Счастливого дня рождения!</t>
+  </si>
+  <si>
+    <t>, пусть каждый твой шаг будет гармоничным, каждое решение - мудрым, а каждая улыбка - искренней! Счастливого дня рождения!</t>
+  </si>
+  <si>
+    <t>, сегодня настал твой день - день рождения! Хочу пожелать тебе неуловимой красоты, непоколебимой стойкости и мирного неба над головой!</t>
+  </si>
+  <si>
+    <t>, сегодня ты возрастаешь на год и наполняешься новыми возможностями! Желаем тебе смелости и терпения, чтобы осуществить все свои мечты!</t>
+  </si>
+  <si>
+    <t>, от всего коллектива поздравляем тебя с днем рождения! Пусть твоя жизнь будет наполнена любовью, гармонией и взаимопониманием!</t>
+  </si>
+  <si>
+    <t>, мы желаем тебе неограниченной свободы думать, любить и творить! Пусть каждый твой день будет наполнен радостью и неподдельным счастьем!</t>
+  </si>
+  <si>
+    <t>, от коллектива хотим пожелать тебе свершений, новых открытий и непрерывного роста! Счастливого дня рождения!</t>
+  </si>
+  <si>
+    <t>, пусть каждый твой день будет наполнен яркими красками, оптимизмом и благополучием! Желаем тебе только величественных побед!</t>
+  </si>
+  <si>
+    <t>, поздравляем тебя с днем рождения! Пусть с каждым новым днем ты становишься все счастливее, крепче и успешнее!</t>
+  </si>
+  <si>
+    <t>, от коллектива приходят самые теплые поздравления! Желаем тебе творческого вдохновения, удачи во всех начинаниях и непреклонного духа!</t>
+  </si>
+  <si>
+    <t>, сегодня хочу пожелать тебе много счастливых мгновений, ярких мелочей и немеркнущей надежды! Пусть тебя окружают только искренние и верные друзья!</t>
+  </si>
+  <si>
+    <t>, пусть весь мир притягивает к тебе только положительные события и благосклонность! Желаем тебе радости, любви и исполнения самых сокровенных мечт!</t>
+  </si>
+  <si>
+    <t>, сегодня твой день рождения, и мы желаем тебе бесконечного счастья, любви и искренних улыбок! Пусть жизнь дарит тебе только лучшее!</t>
+  </si>
+  <si>
+    <t>, пусть звезды всегда сияют тебе на пути к успеху! Желаем тебе непреодолимой силы, упорства и исполнения всех твоих мечт!</t>
+  </si>
+  <si>
+    <t>, поздравляем тебя с днем рождения! Пусть каждый день твоей жизни будет наполнен радостью, добротой и благополучием!</t>
+  </si>
+  <si>
+    <t>, пусть каждый твой день будет наполнен счастьем, успехами и любовью! Желаем тебе самых ярких эмоций и незабываемых впечатлений!</t>
+  </si>
+  <si>
+    <t>, сегодня мы от души желаем тебе кипящей энергии, неиссякаемой страсти и бесконечного вдохновения! Счастливого дня рождения!</t>
+  </si>
+  <si>
+    <t>, пусть этот день будет наполнен улыбками и удачей! Желаем тебе осуществления всех задуманных планов и много новых свершений!</t>
+  </si>
+  <si>
+    <t>, мы хотим от всей души поздравить тебя с днем рождения! Пусть каждый шаг, который ты сделаешь, приближает тебя к твоим мечтам!</t>
+  </si>
+  <si>
+    <t>, от всего коллектива хочу пожелать тебе самых ярких моментов в этот особенный день! Пусть твоя жизнь кипит счастьем и достижениями!</t>
+  </si>
+  <si>
+    <t>, сегодня у нас особый день, ведь это твой день рождения! Пусть каждый мгновенье будет наполнено радостью, смехом и улыбкой!</t>
+  </si>
+  <si>
+    <t>ПОЗДРАВЛЕНИЕ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -175,6 +247,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,15 +532,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.42578125" style="3" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="31.28515625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
@@ -478,195 +553,240 @@
       <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>34339</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>31493</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>33327</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>34790</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>28218</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>31509</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>31881</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>35919</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>33368</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>34468</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>32676</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>35992</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>34184</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>37893</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>36454</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>36095</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5">
         <v>14190</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>36110</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>31000</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2">
         <v>34325</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>29585</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -681,7 +801,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>45202</v>
+        <v>45203</v>
       </c>
     </row>
   </sheetData>

--- a/D_R_Z-Soyl.xlsx
+++ b/D_R_Z-Soyl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Личный софт и наработки\Телеграм бот\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC9A296-3BC2-454D-B335-8D326D0E05C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E8F0E-3387-4119-93BB-42F7F0FD6A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Маркин Михаил Владимирович</t>
   </si>
@@ -94,12 +94,6 @@
   </si>
   <si>
     <t>ДАТА</t>
-  </si>
-  <si>
-    <t>Витя</t>
-  </si>
-  <si>
-    <t>Коля</t>
   </si>
   <si>
     <t>, от имени всего коллектива хочу пожелать тебе неиссякаемого вдохновения и полного воплощения твоих талантов! Счастливого дня рождения!</t>
@@ -530,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +548,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -565,7 +559,7 @@
         <v>34339</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -576,7 +570,7 @@
         <v>31493</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -587,7 +581,7 @@
         <v>33327</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -598,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -609,7 +603,7 @@
         <v>28218</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -620,7 +614,7 @@
         <v>31509</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -631,7 +625,7 @@
         <v>31881</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -642,7 +636,7 @@
         <v>35919</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -653,7 +647,7 @@
         <v>33368</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -664,7 +658,7 @@
         <v>34468</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -675,7 +669,7 @@
         <v>32676</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -686,7 +680,7 @@
         <v>35992</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -697,7 +691,7 @@
         <v>34184</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -708,7 +702,7 @@
         <v>37893</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -719,7 +713,7 @@
         <v>36454</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -730,7 +724,7 @@
         <v>36095</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -741,7 +735,7 @@
         <v>14190</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -752,7 +746,7 @@
         <v>36110</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -763,7 +757,7 @@
         <v>31000</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -774,7 +768,7 @@
         <v>34325</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -785,24 +779,19 @@
         <v>29585</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <v>45202</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4">
-        <v>45203</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
